--- a/LegendOfWhite/Output/맵셋팅.xlsx
+++ b/LegendOfWhite/Output/맵셋팅.xlsx
@@ -13,6 +13,15 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34,7 +43,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -53,6 +62,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -68,7 +89,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -79,6 +100,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -385,7 +412,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -457,36 +484,45 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="G2" s="5"/>
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5"/>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="E4" s="5"/>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="D5" s="5"/>
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
+      <c r="C6" s="5"/>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="5"/>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
